--- a/ig/StructureDefinition-ror-maternity-hospital-type.xlsx
+++ b/ig/StructureDefinition-ror-maternity-hospital-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-29T16:33:30+00:00</t>
+    <t>2023-01-29T16:48:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-maternity-hospital-type.xlsx
+++ b/ig/StructureDefinition-ror-maternity-hospital-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-29T16:48:08+00:00</t>
+    <t>2023-01-29T17:15:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-maternity-hospital-type.xlsx
+++ b/ig/StructureDefinition-ror-maternity-hospital-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-29T17:15:58+00:00</t>
+    <t>2023-01-30T08:55:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/StructureDefinition-ror-maternity-hospital-type.xlsx
+++ b/ig/StructureDefinition-ror-maternity-hospital-type.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-30T08:55:35+00:00</t>
+    <t>2023-01-30T09:16:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
